--- a/WebApplication1/WebApplication1/FileExcel/NamHoc.xlsx
+++ b/WebApplication1/WebApplication1/FileExcel/NamHoc.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6148F0FE-0BFE-437C-A959-D28C045417D1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7EE2701D-AF26-4BAF-B8A4-7F9AAB20111F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>TEN_NAM_HOC</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>2022-2023</t>
+  </si>
+  <si>
+    <t>2018-2019</t>
   </si>
 </sst>
 </file>
@@ -81,9 +84,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -364,10 +368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -385,16 +389,16 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="b">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="b">
         <v>0</v>
@@ -402,7 +406,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="b">
         <v>0</v>
@@ -410,9 +414,17 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="b">
+      <c r="B6" t="b">
         <v>0</v>
       </c>
     </row>
